--- a/survivorship/survivorship_data.xlsx
+++ b/survivorship/survivorship_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch3_reciprocaltransplant/survivorship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_A47E9587D509BD4AF22222C05CEA74E470519720" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D94B474D-CED5-E244-95DC-8AAEB9DED196}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="11_A47E9587D509BD4AF22222C05CEA74E470519720" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C9F6A9-F0C8-BD43-BA44-4D7C90D06545}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="27740" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="27740" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="color coded - corrected" sheetId="5" r:id="rId1"/>
@@ -501,12 +501,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +790,10 @@
       <c r="D2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -1827,16 +1827,16 @@
       <c r="H40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="49">
+      <c r="J40" s="48">
         <v>6</v>
       </c>
-      <c r="K40" s="49">
+      <c r="K40" s="48">
         <v>6</v>
       </c>
       <c r="L40" s="13">
         <v>5</v>
       </c>
-      <c r="M40" s="50">
+      <c r="M40" s="49">
         <v>0.83</v>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B14EAE9-8F62-6E48-8585-39EE11517464}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -9984,8 +9984,8 @@
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10037,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
@@ -10055,27 +10055,27 @@
         <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -10110,10 +10110,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -10131,27 +10131,27 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -10169,27 +10169,27 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -10207,27 +10207,27 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -10245,48 +10245,48 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -10295,74 +10295,74 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>51</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -10371,62 +10371,62 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>51</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="5">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="5">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
@@ -10435,36 +10435,36 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="5">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -10473,39 +10473,39 @@
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="5">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -10528,22 +10528,22 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="5">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -10569,54 +10569,54 @@
         <v>2</v>
       </c>
       <c r="B16" s="5">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="J16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>51</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="5">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>14</v>
@@ -10628,83 +10628,83 @@
         <v>1</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>119</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="5">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>217</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="5">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="8">
         <v>0</v>
@@ -10713,15 +10713,15 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>217</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>11</v>
@@ -10742,16 +10742,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>217</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10759,7 +10759,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
@@ -10780,16 +10780,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10797,7 +10797,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>11</v>
@@ -10821,21 +10821,21 @@
         <v>1</v>
       </c>
       <c r="J22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="5">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>11</v>
@@ -10870,10 +10870,10 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="5">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
@@ -10891,10 +10891,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
@@ -10903,15 +10903,15 @@
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>217</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="5">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>11</v>
@@ -10949,28 +10949,28 @@
         <v>3</v>
       </c>
       <c r="B26" s="5">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="8">
         <v>0</v>
@@ -10979,24 +10979,24 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>217</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="5">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>14</v>
@@ -11005,10 +11005,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8">
         <v>0</v>
@@ -11017,24 +11017,24 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>217</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>14</v>
@@ -11043,10 +11043,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="8">
         <v>0</v>
@@ -11055,24 +11055,24 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>217</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" s="5">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>14</v>
@@ -11081,10 +11081,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="8">
         <v>0</v>
@@ -11093,15 +11093,15 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>217</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>11</v>
@@ -11125,21 +11125,21 @@
         <v>0</v>
       </c>
       <c r="J30" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>350</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>11</v>
@@ -11157,27 +11157,27 @@
         <v>1</v>
       </c>
       <c r="H31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>350</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="5">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>11</v>
@@ -11198,36 +11198,36 @@
         <v>1</v>
       </c>
       <c r="I32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="4">
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>350</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="5">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -11242,30 +11242,30 @@
         <v>1</v>
       </c>
       <c r="K33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="4">
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="5">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -11280,30 +11280,30 @@
         <v>1</v>
       </c>
       <c r="K34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="4">
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="5">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -11315,33 +11315,33 @@
         <v>1</v>
       </c>
       <c r="J35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>350</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="5">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -11353,33 +11353,33 @@
         <v>1</v>
       </c>
       <c r="J36" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>350</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" s="5">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -11391,13 +11391,13 @@
         <v>1</v>
       </c>
       <c r="J37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>350</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11440,19 +11440,19 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" s="5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>16</v>
@@ -11464,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="8">
         <v>1</v>
@@ -11478,171 +11478,171 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="5">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="H40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="4">
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="5">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
       </c>
       <c r="H41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="4">
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" s="5">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
       </c>
       <c r="H42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B43" s="5">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
       </c>
       <c r="H43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" s="5">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>14</v>
@@ -11668,19 +11668,19 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B45" s="5">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>14</v>
@@ -11706,19 +11706,19 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46" s="5">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>14</v>
@@ -11733,13 +11733,13 @@
         <v>1</v>
       </c>
       <c r="J46" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="13" x14ac:dyDescent="0.15">
@@ -11747,19 +11747,19 @@
         <v>4</v>
       </c>
       <c r="B47" s="5">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
@@ -11774,30 +11774,30 @@
         <v>1</v>
       </c>
       <c r="K47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="4">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
@@ -11812,30 +11812,30 @@
         <v>1</v>
       </c>
       <c r="K48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" s="5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
@@ -11861,7 +11861,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>12</v>
@@ -11899,7 +11899,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>12</v>
@@ -11937,7 +11937,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>12</v>
@@ -11975,7 +11975,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>12</v>
@@ -12013,7 +12013,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>12</v>
@@ -12051,7 +12051,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>12</v>
@@ -12089,7 +12089,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="5">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>12</v>
@@ -12127,7 +12127,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>12</v>
@@ -12151,13 +12151,13 @@
         <v>1</v>
       </c>
       <c r="J57" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="13" x14ac:dyDescent="0.15">
@@ -12165,7 +12165,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="5">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>12</v>
@@ -12200,19 +12200,19 @@
     </row>
     <row r="59" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B59" s="5">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>16</v>
@@ -12238,19 +12238,19 @@
     </row>
     <row r="60" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" s="5">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>16</v>
@@ -12276,19 +12276,19 @@
     </row>
     <row r="61" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61" s="5">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>16</v>
@@ -12314,22 +12314,22 @@
     </row>
     <row r="62" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B62" s="5">
+        <v>67</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="9">
         <v>1</v>
@@ -12352,22 +12352,22 @@
     </row>
     <row r="63" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B63" s="5">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G63" s="4">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="9">
         <v>1</v>
@@ -12390,22 +12390,22 @@
     </row>
     <row r="64" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B64" s="5">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G64" s="4">
         <v>1</v>
@@ -12428,22 +12428,22 @@
     </row>
     <row r="65" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B65" s="5">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G65" s="4">
         <v>1</v>
@@ -12466,10 +12466,10 @@
     </row>
     <row r="66" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B66" s="5">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>12</v>
@@ -12490,24 +12490,24 @@
         <v>1</v>
       </c>
       <c r="I66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" s="5">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>12</v>
@@ -12531,21 +12531,21 @@
         <v>1</v>
       </c>
       <c r="J67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B68" s="5">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>12</v>
@@ -12569,13 +12569,13 @@
         <v>1</v>
       </c>
       <c r="J68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="13" x14ac:dyDescent="0.15">
@@ -12583,7 +12583,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="5">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>12</v>
@@ -12621,7 +12621,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="5">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>12</v>
@@ -12659,7 +12659,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>12</v>
@@ -12697,7 +12697,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>12</v>
@@ -12724,10 +12724,10 @@
         <v>1</v>
       </c>
       <c r="K72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.15">
@@ -12735,7 +12735,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>12</v>
@@ -12762,20 +12762,19 @@
         <v>1</v>
       </c>
       <c r="K73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K73">
-    <sortCondition ref="K2:K73"/>
-    <sortCondition ref="J2:J73"/>
-    <sortCondition ref="I2:I73"/>
-    <sortCondition ref="H2:H73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L73">
+    <sortCondition ref="A2:A73"/>
+    <sortCondition ref="B2:B73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -12846,10 +12845,10 @@
       <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
@@ -12876,8 +12875,8 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
@@ -12904,8 +12903,8 @@
       <c r="H4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
@@ -12932,8 +12931,8 @@
       <c r="H5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
@@ -12960,8 +12959,8 @@
       <c r="H6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
@@ -13883,16 +13882,16 @@
       <c r="H40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="49">
+      <c r="J40" s="48">
         <v>6</v>
       </c>
-      <c r="K40" s="49">
+      <c r="K40" s="48">
         <v>6</v>
       </c>
       <c r="L40" s="13">
         <v>5</v>
       </c>
-      <c r="M40" s="50">
+      <c r="M40" s="49">
         <v>0.83</v>
       </c>
     </row>
